--- a/data/trans_orig/P23_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P23_R2-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>177885</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>158121</v>
+        <v>158522</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>199821</v>
+        <v>200292</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3608055666035119</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3207181324930996</v>
+        <v>0.3215309555590246</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4052988992341412</v>
+        <v>0.4062538269265731</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>165</v>
@@ -765,19 +765,19 @@
         <v>155760</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>135771</v>
+        <v>136843</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>175171</v>
+        <v>175440</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3331844492839527</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2904254743550983</v>
+        <v>0.2927199895972868</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3747061564225094</v>
+        <v>0.3752814626261188</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>343</v>
@@ -786,19 +786,19 @@
         <v>333645</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>306496</v>
+        <v>301749</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>363157</v>
+        <v>362450</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3473621230797423</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3190966423750893</v>
+        <v>0.314154244384272</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.378087248673645</v>
+        <v>0.3773507847951325</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>315137</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>293201</v>
+        <v>292730</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>334901</v>
+        <v>334500</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6391944333964881</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5947011007658589</v>
+        <v>0.5937461730734269</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6792818675069004</v>
+        <v>0.6784690444409754</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>324</v>
@@ -836,19 +836,19 @@
         <v>311729</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>292318</v>
+        <v>292049</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>331718</v>
+        <v>330646</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6668155507160473</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6252938435774905</v>
+        <v>0.6247185373738812</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7095745256449016</v>
+        <v>0.7072800104027133</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>644</v>
@@ -857,19 +857,19 @@
         <v>626866</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>597354</v>
+        <v>598061</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>654015</v>
+        <v>658762</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6526378769202578</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.621912751326355</v>
+        <v>0.6226492152048675</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6809033576249103</v>
+        <v>0.6858457556157272</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>362706</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>336411</v>
+        <v>335395</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>391664</v>
+        <v>388985</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4931495176489769</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4573982994415972</v>
+        <v>0.4560169276992018</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5325216214230896</v>
+        <v>0.5288790919193009</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>211</v>
@@ -982,19 +982,19 @@
         <v>218410</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>194515</v>
+        <v>195623</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>242553</v>
+        <v>244627</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3491800614844354</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3109787141491149</v>
+        <v>0.3127488035932679</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3877776886630291</v>
+        <v>0.3910946091961795</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>562</v>
@@ -1003,19 +1003,19 @@
         <v>581116</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>544308</v>
+        <v>548526</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>613106</v>
+        <v>618802</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4269826053975208</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.399937685874113</v>
+        <v>0.4030372671300465</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4504880594212664</v>
+        <v>0.4546734335838818</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>372783</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>343825</v>
+        <v>346504</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>399078</v>
+        <v>400094</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5068504823510231</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4674783785769105</v>
+        <v>0.4711209080806991</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5426017005584028</v>
+        <v>0.5439830723007981</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>380</v>
@@ -1053,19 +1053,19 @@
         <v>407084</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>382941</v>
+        <v>380867</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>430979</v>
+        <v>429871</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6508199385155646</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6122223113369706</v>
+        <v>0.6089053908038203</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.689021285850885</v>
+        <v>0.687251196406732</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>732</v>
@@ -1074,19 +1074,19 @@
         <v>779866</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>747876</v>
+        <v>742180</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>816674</v>
+        <v>812456</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5730173946024791</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5495119405787336</v>
+        <v>0.5453265664161182</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6000623141258871</v>
+        <v>0.5969627328699535</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>333216</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>306498</v>
+        <v>308795</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>361412</v>
+        <v>358417</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5217355441487824</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4799020247418493</v>
+        <v>0.4834978356879682</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5658842100784797</v>
+        <v>0.5611938348143171</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>246</v>
@@ -1199,19 +1199,19 @@
         <v>255878</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>230287</v>
+        <v>232022</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>282918</v>
+        <v>285294</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3709750882596457</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3338725084760317</v>
+        <v>0.3363885838899452</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4101781197407127</v>
+        <v>0.4136232749874357</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>566</v>
@@ -1220,19 +1220,19 @@
         <v>589094</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>554602</v>
+        <v>552456</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>630659</v>
+        <v>625368</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.44345698979038</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4174921183235424</v>
+        <v>0.4158771808751358</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.474746884804384</v>
+        <v>0.4707638593180102</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>305452</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>277256</v>
+        <v>280251</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>332170</v>
+        <v>329873</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4782644558512176</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4341157899215203</v>
+        <v>0.4388061651856829</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5200979752581507</v>
+        <v>0.5165021643120317</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>412</v>
@@ -1270,19 +1270,19 @@
         <v>433866</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>406826</v>
+        <v>404450</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>459457</v>
+        <v>457722</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6290249117403542</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5898218802592873</v>
+        <v>0.5863767250125642</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6661274915239682</v>
+        <v>0.6636114161100547</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>705</v>
@@ -1291,19 +1291,19 @@
         <v>739318</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>697753</v>
+        <v>703044</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>773810</v>
+        <v>775956</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.55654301020962</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.525253115195616</v>
+        <v>0.5292361406819899</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5825078816764576</v>
+        <v>0.5841228191248643</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>227846</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>204743</v>
+        <v>205559</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>251284</v>
+        <v>251002</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4388850382063663</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3943839764432986</v>
+        <v>0.3959559122854308</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4840327288828117</v>
+        <v>0.4834885865010815</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>136</v>
@@ -1416,19 +1416,19 @@
         <v>141648</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>122155</v>
+        <v>122162</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>161626</v>
+        <v>160632</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2747015393155578</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2368983762315335</v>
+        <v>0.2369127335788352</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3134466988873996</v>
+        <v>0.3115178541178215</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>349</v>
@@ -1437,19 +1437,19 @@
         <v>369494</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>338932</v>
+        <v>339004</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>399801</v>
+        <v>402543</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.357071351153236</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3275376280041619</v>
+        <v>0.3276073400984773</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3863603388447059</v>
+        <v>0.3890102136305788</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>291301</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>267863</v>
+        <v>268145</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>314404</v>
+        <v>313588</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5611149617936337</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5159672711171883</v>
+        <v>0.5165114134989185</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6056160235567014</v>
+        <v>0.6040440877145694</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>366</v>
@@ -1487,19 +1487,19 @@
         <v>373994</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>354016</v>
+        <v>355010</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>393487</v>
+        <v>393480</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7252984606844421</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6865533011126004</v>
+        <v>0.6884821458821784</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7631016237684666</v>
+        <v>0.7630872664211648</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>637</v>
@@ -1508,19 +1508,19 @@
         <v>665295</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>634988</v>
+        <v>632246</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>695857</v>
+        <v>695785</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.642928648846764</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6136396611552941</v>
+        <v>0.6109897863694213</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6724623719958381</v>
+        <v>0.6723926599015227</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>127783</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>110146</v>
+        <v>109136</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>147280</v>
+        <v>145734</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3304361136049425</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2848293022207478</v>
+        <v>0.2822170976804597</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3808551356316573</v>
+        <v>0.3768550312232354</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>45</v>
@@ -1633,19 +1633,19 @@
         <v>46888</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>35598</v>
+        <v>35566</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>62007</v>
+        <v>61305</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1160631369556759</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08811681693704651</v>
+        <v>0.08803685436946247</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1534869213693251</v>
+        <v>0.1517493937909991</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>175</v>
@@ -1654,19 +1654,19 @@
         <v>174671</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>153144</v>
+        <v>153232</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>199916</v>
+        <v>197499</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2209077040923197</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1936826647112304</v>
+        <v>0.1937942132229033</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2528357559361036</v>
+        <v>0.2497790862651506</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>258927</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>239430</v>
+        <v>240976</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>276564</v>
+        <v>277574</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6695638863950575</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6191448643683427</v>
+        <v>0.6231449687767645</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7151706977792522</v>
+        <v>0.7177829023195402</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>351</v>
@@ -1704,19 +1704,19 @@
         <v>357098</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>341979</v>
+        <v>342681</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>368388</v>
+        <v>368420</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8839368630443241</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8465130786306749</v>
+        <v>0.8482506062090011</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9118831830629536</v>
+        <v>0.9119631456305376</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>613</v>
@@ -1725,19 +1725,19 @@
         <v>616025</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>590780</v>
+        <v>593197</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>637552</v>
+        <v>637464</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7790922959076804</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7471642440638968</v>
+        <v>0.7502209137348494</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8063173352887697</v>
+        <v>0.806205786777097</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>53173</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>41811</v>
+        <v>41452</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>68343</v>
+        <v>65864</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1817353480539775</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1429016649683248</v>
+        <v>0.1416762043084295</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2335835356786526</v>
+        <v>0.22511289404354</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>7</v>
@@ -1850,19 +1850,19 @@
         <v>6585</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2821</v>
+        <v>2819</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>13449</v>
+        <v>13136</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01920174482686319</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.008226978261865019</v>
+        <v>0.008220091606903174</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03921865690684395</v>
+        <v>0.03830491977775817</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>64</v>
@@ -1871,19 +1871,19 @@
         <v>59758</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>45617</v>
+        <v>47497</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>73484</v>
+        <v>76448</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.09402990729271031</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07177916338659864</v>
+        <v>0.07473758949398197</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1156294495272009</v>
+        <v>0.1202928718040139</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>239410</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>224240</v>
+        <v>226719</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>250772</v>
+        <v>251131</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8182646519460225</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7664164643213464</v>
+        <v>0.7748871059564599</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8570983350316751</v>
+        <v>0.8583237956915706</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>364</v>
@@ -1921,19 +1921,19 @@
         <v>336349</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>329485</v>
+        <v>329798</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>340113</v>
+        <v>340115</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9807982551731368</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.960781343093156</v>
+        <v>0.9616950802222418</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.991773021738135</v>
+        <v>0.9917799083930968</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>610</v>
@@ -1942,19 +1942,19 @@
         <v>575759</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>562033</v>
+        <v>559069</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>589900</v>
+        <v>588020</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9059700927072897</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8843705504727991</v>
+        <v>0.8797071281959863</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9282208366134015</v>
+        <v>0.925262410506018</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>22654</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>14728</v>
+        <v>14578</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>32358</v>
+        <v>31956</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1079340927342787</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0701719146048185</v>
+        <v>0.06945657970637879</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1541707410909642</v>
+        <v>0.1522583039857056</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4</v>
@@ -2067,19 +2067,19 @@
         <v>4635</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1117</v>
+        <v>1129</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>11815</v>
+        <v>11211</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01388088907239755</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.003344801964975238</v>
+        <v>0.003380638869394978</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03538406402978991</v>
+        <v>0.03357507293198449</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>27</v>
@@ -2088,19 +2088,19 @@
         <v>27288</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>17969</v>
+        <v>18739</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>39000</v>
+        <v>39712</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05018191136762866</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03304393690889092</v>
+        <v>0.03445992500413456</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07171963361184149</v>
+        <v>0.07302788837209397</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>187229</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>177525</v>
+        <v>177927</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>195155</v>
+        <v>195305</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8920659072657213</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8458292589090364</v>
+        <v>0.8477416960142949</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.929828085395182</v>
+        <v>0.9305434202936212</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>286</v>
@@ -2138,19 +2138,19 @@
         <v>329273</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>322093</v>
+        <v>322697</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>332791</v>
+        <v>332779</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9861191109276024</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9646159359702082</v>
+        <v>0.966424927068015</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9966551980350248</v>
+        <v>0.996619361130605</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>483</v>
@@ -2159,19 +2159,19 @@
         <v>516503</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>504791</v>
+        <v>504079</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>525822</v>
+        <v>525052</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9498180886323714</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9282803663881587</v>
+        <v>0.926972111627906</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.966956063091109</v>
+        <v>0.9655400749958655</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>1305261</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1247866</v>
+        <v>1252625</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1366133</v>
+        <v>1360075</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3984921505936019</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.380969642021169</v>
+        <v>0.3824223081344389</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4170760450911604</v>
+        <v>0.4152264714443021</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>814</v>
@@ -2284,19 +2284,19 @@
         <v>829803</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>779274</v>
+        <v>778464</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>881915</v>
+        <v>883055</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2455622932328739</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2306090796420667</v>
+        <v>0.2303695009626821</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2609835619689522</v>
+        <v>0.2613209926347024</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2086</v>
@@ -2305,19 +2305,19 @@
         <v>2135065</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2061780</v>
+        <v>2067145</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2223353</v>
+        <v>2212167</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3208357136936954</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3098232429060634</v>
+        <v>0.3106293652586773</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3341027434465323</v>
+        <v>0.3324219212670809</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>1970240</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1909368</v>
+        <v>1915426</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2027635</v>
+        <v>2022876</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6015078494063981</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5829239549088396</v>
+        <v>0.584773528555698</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6190303579788311</v>
+        <v>0.6175776918655612</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2483</v>
@@ -2355,19 +2355,19 @@
         <v>2549394</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2497282</v>
+        <v>2496142</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2599923</v>
+        <v>2600733</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7544377067671261</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7390164380310477</v>
+        <v>0.7386790073652977</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7693909203579333</v>
+        <v>0.7696304990373179</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4424</v>
@@ -2376,19 +2376,19 @@
         <v>4519633</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4431345</v>
+        <v>4442531</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4592918</v>
+        <v>4587553</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6791642863063047</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6658972565534677</v>
+        <v>0.667578078732919</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6901767570939366</v>
+        <v>0.6893706347413227</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>137181</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>117831</v>
+        <v>118856</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>157562</v>
+        <v>157622</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3020635462734534</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2594567484023504</v>
+        <v>0.2617134253358443</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3469418359095602</v>
+        <v>0.3470737423140205</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>136</v>
@@ -2744,19 +2744,19 @@
         <v>141354</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>123630</v>
+        <v>121343</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>160620</v>
+        <v>162801</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3293166420590743</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2880257880241134</v>
+        <v>0.2826965383520857</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.374201229623718</v>
+        <v>0.3792832417957549</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>272</v>
@@ -2765,19 +2765,19 @@
         <v>278535</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>252643</v>
+        <v>251990</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>307034</v>
+        <v>304109</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3153058090206813</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2859953608906568</v>
+        <v>0.2852564176402453</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.347567469346803</v>
+        <v>0.3442562123738127</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>316965</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>296584</v>
+        <v>296524</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>336315</v>
+        <v>335290</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6979364537265466</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6530581640904397</v>
+        <v>0.6529262576859793</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7405432515976494</v>
+        <v>0.7382865746641556</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>284</v>
@@ -2815,19 +2815,19 @@
         <v>287880</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>268614</v>
+        <v>266433</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>305604</v>
+        <v>307891</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6706833579409257</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.625798770376282</v>
+        <v>0.620716758204245</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7119742119758865</v>
+        <v>0.7173034616479143</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>594</v>
@@ -2836,19 +2836,19 @@
         <v>604845</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>576346</v>
+        <v>579271</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>630737</v>
+        <v>631390</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6846941909793187</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.652432530653197</v>
+        <v>0.6557437876261872</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7140046391093432</v>
+        <v>0.714743582359754</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>301537</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>272403</v>
+        <v>276068</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>325378</v>
+        <v>330702</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4388631200533925</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.396460677514253</v>
+        <v>0.4017952156562608</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4735618097769572</v>
+        <v>0.4813104799821817</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>230</v>
@@ -2961,19 +2961,19 @@
         <v>244610</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>221533</v>
+        <v>218498</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>269734</v>
+        <v>269245</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.400831875084818</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3630168616731818</v>
+        <v>0.3580441375811032</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4420023482367355</v>
+        <v>0.4412013641576386</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>526</v>
@@ -2982,19 +2982,19 @@
         <v>546147</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>510528</v>
+        <v>511555</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>582450</v>
+        <v>583572</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4209736468707915</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3935183487481863</v>
+        <v>0.3943098884042605</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4489567682988531</v>
+        <v>0.449820970469229</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>385550</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>361709</v>
+        <v>356385</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>414684</v>
+        <v>411019</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5611368799466074</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5264381902230427</v>
+        <v>0.5186895200178184</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.603539322485747</v>
+        <v>0.5982047843437394</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>341</v>
@@ -3032,19 +3032,19 @@
         <v>365645</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>340521</v>
+        <v>341010</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>388722</v>
+        <v>391757</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.599168124915182</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5579976517632643</v>
+        <v>0.5587986358423614</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6369831383268182</v>
+        <v>0.6419558624188968</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>712</v>
@@ -3053,19 +3053,19 @@
         <v>751195</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>714892</v>
+        <v>713770</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>786814</v>
+        <v>785787</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5790263531292085</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5510432317011469</v>
+        <v>0.5501790295307709</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6064816512518133</v>
+        <v>0.6056901115957395</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>312480</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>286501</v>
+        <v>285863</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>339687</v>
+        <v>339049</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4589666487252304</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4208090467267218</v>
+        <v>0.4198728391830142</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4989284087929673</v>
+        <v>0.4979919946446308</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>229</v>
@@ -3178,19 +3178,19 @@
         <v>242610</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>214554</v>
+        <v>217586</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>268738</v>
+        <v>267912</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.341770014603817</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3022471507271063</v>
+        <v>0.3065177515434477</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3785764366913362</v>
+        <v>0.3774135226707789</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>528</v>
@@ -3199,19 +3199,19 @@
         <v>555090</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>515686</v>
+        <v>517169</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>591863</v>
+        <v>591463</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.399145099421075</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3708113021145998</v>
+        <v>0.3718776656927884</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4255869884977598</v>
+        <v>0.4252998341249256</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>368353</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>341146</v>
+        <v>341784</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>394332</v>
+        <v>394970</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5410333512747696</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5010715912070327</v>
+        <v>0.5020080053553696</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5791909532732782</v>
+        <v>0.580127160816986</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>437</v>
@@ -3249,19 +3249,19 @@
         <v>467254</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>441126</v>
+        <v>441952</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>495310</v>
+        <v>492278</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.658229985396183</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6214235633086639</v>
+        <v>0.6225864773292212</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6977528492728938</v>
+        <v>0.6934822484565524</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>788</v>
@@ -3270,19 +3270,19 @@
         <v>835607</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>798834</v>
+        <v>799234</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>875011</v>
+        <v>873528</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.600854900578925</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5744130115022401</v>
+        <v>0.5747001658750743</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6291886978854</v>
+        <v>0.6281223343072116</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>277749</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>251138</v>
+        <v>252987</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>301792</v>
+        <v>304327</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4519062491776837</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4086097459540368</v>
+        <v>0.4116175505126311</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4910242578474743</v>
+        <v>0.4951498202521527</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>206</v>
@@ -3395,19 +3395,19 @@
         <v>239387</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>212511</v>
+        <v>214834</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>264454</v>
+        <v>266192</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3884897245871408</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3448733328811558</v>
+        <v>0.3486431400900655</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4291698180195476</v>
+        <v>0.4319900146520909</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>451</v>
@@ -3416,19 +3416,19 @@
         <v>517136</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>480280</v>
+        <v>472233</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>554238</v>
+        <v>551407</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4201572205732321</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3902126230591925</v>
+        <v>0.3836750467550397</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4503012138060346</v>
+        <v>0.4480009528072612</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>336868</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>312825</v>
+        <v>310290</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>363479</v>
+        <v>361630</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5480937508223163</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5089757421525254</v>
+        <v>0.5048501797478473</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5913902540459632</v>
+        <v>0.588382449487369</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>333</v>
@@ -3466,19 +3466,19 @@
         <v>376812</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>351745</v>
+        <v>350007</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>403688</v>
+        <v>401365</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6115102754128592</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5708301819804523</v>
+        <v>0.5680099853479093</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6551266671188442</v>
+        <v>0.6513568599099345</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>636</v>
@@ -3487,19 +3487,19 @@
         <v>713680</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>676578</v>
+        <v>679409</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>750536</v>
+        <v>758583</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5798427794267679</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5496987861939654</v>
+        <v>0.5519990471927387</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6097873769408074</v>
+        <v>0.6163249532449603</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>155383</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>135165</v>
+        <v>134604</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>178666</v>
+        <v>176158</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3618363334187077</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3147540427969737</v>
+        <v>0.3134477969466583</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4160545230316671</v>
+        <v>0.4102134381115841</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>60</v>
@@ -3612,19 +3612,19 @@
         <v>67829</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>53182</v>
+        <v>53315</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>84449</v>
+        <v>85307</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.151471016440494</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1187622033326856</v>
+        <v>0.1190609047425338</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1885875004664952</v>
+        <v>0.1905017442507942</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>201</v>
@@ -3633,19 +3633,19 @@
         <v>223212</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>196775</v>
+        <v>196734</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>249915</v>
+        <v>252354</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2544509508488736</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2243144931964491</v>
+        <v>0.2242670465576996</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2848914594632794</v>
+        <v>0.2876722216775474</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>274046</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>250763</v>
+        <v>253271</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>294264</v>
+        <v>294825</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6381636665812923</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5839454769683329</v>
+        <v>0.5897865618884158</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6852459572030264</v>
+        <v>0.6865522030533414</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>346</v>
@@ -3683,19 +3683,19 @@
         <v>379971</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>363351</v>
+        <v>362493</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>394618</v>
+        <v>394485</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.848528983559506</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8114124995335045</v>
+        <v>0.8094982557492056</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8812377966673144</v>
+        <v>0.8809390952574659</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>598</v>
@@ -3704,19 +3704,19 @@
         <v>654017</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>627314</v>
+        <v>624875</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>680454</v>
+        <v>680495</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7455490491511264</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7151085405367207</v>
+        <v>0.7123277783224525</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7756855068035511</v>
+        <v>0.7757329534423004</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>51254</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>38868</v>
+        <v>38541</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>66556</v>
+        <v>66479</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1654503760645597</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1254665239338129</v>
+        <v>0.1244115613545905</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.214846028158904</v>
+        <v>0.2145981409350713</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>17</v>
@@ -3829,19 +3829,19 @@
         <v>19003</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>11467</v>
+        <v>11356</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>29256</v>
+        <v>30601</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05368066104293117</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03239307897037795</v>
+        <v>0.03207999382133678</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08264552504366134</v>
+        <v>0.08644471539183507</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>61</v>
@@ -3850,19 +3850,19 @@
         <v>70257</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>55930</v>
+        <v>55994</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>90548</v>
+        <v>89249</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1058434250290842</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08426000334113505</v>
+        <v>0.08435661430810323</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.136412383460866</v>
+        <v>0.1344549727726227</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>258532</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>243230</v>
+        <v>243307</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>270918</v>
+        <v>271245</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8345496239354403</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7851539718410959</v>
+        <v>0.7854018590649287</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8745334760661871</v>
+        <v>0.8755884386454095</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>327</v>
@@ -3900,19 +3900,19 @@
         <v>334993</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>324740</v>
+        <v>323395</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>342529</v>
+        <v>342640</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9463193389570689</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9173544749563387</v>
+        <v>0.9135552846081644</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9676069210296221</v>
+        <v>0.9679200061786631</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>565</v>
@@ -3921,19 +3921,19 @@
         <v>593525</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>573234</v>
+        <v>574533</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>607852</v>
+        <v>607788</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8941565749709158</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8635876165391336</v>
+        <v>0.8655450272273774</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.915739996658865</v>
+        <v>0.9156433856918967</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>27052</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>18173</v>
+        <v>18278</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>39565</v>
+        <v>38607</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1082708349565958</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07273543183162735</v>
+        <v>0.07315387930884001</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1583558018006143</v>
+        <v>0.154519201359458</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -4049,16 +4049,16 @@
         <v>1006</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>11696</v>
+        <v>11906</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01035683485477804</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.002587251847225311</v>
+        <v>0.002587159501108674</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03006945884964777</v>
+        <v>0.03060794035435366</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>27</v>
@@ -4067,19 +4067,19 @@
         <v>31080</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>20414</v>
+        <v>20546</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>44879</v>
+        <v>45497</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04865168981201684</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03195474004908806</v>
+        <v>0.03216190997665301</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07025213275813293</v>
+        <v>0.07121986872580646</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>222799</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>210286</v>
+        <v>211244</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>231678</v>
+        <v>231573</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8917291650434042</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8416441981993856</v>
+        <v>0.8454807986405419</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9272645681683725</v>
+        <v>0.92684612069116</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>347</v>
@@ -4117,7 +4117,7 @@
         <v>384950</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>377283</v>
+        <v>377073</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>387973</v>
@@ -4126,10 +4126,10 @@
         <v>0.989643165145222</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9699305411503519</v>
+        <v>0.9693920596456463</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9974127481527747</v>
+        <v>0.9974128404988913</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>545</v>
@@ -4138,19 +4138,19 @@
         <v>607750</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>593951</v>
+        <v>593333</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>618416</v>
+        <v>618284</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9513483101879832</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9297478672418676</v>
+        <v>0.9287801312741932</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.968045259950912</v>
+        <v>0.9678380900233469</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>1262636</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1205043</v>
+        <v>1207148</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1324394</v>
+        <v>1322517</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3685721713591514</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3517604048391249</v>
+        <v>0.3523748024990001</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3865999470064571</v>
+        <v>0.3860519241670833</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>881</v>
@@ -4263,19 +4263,19 @@
         <v>958821</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>905199</v>
+        <v>902419</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1019106</v>
+        <v>1012042</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.269609865333557</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2545320334610676</v>
+        <v>0.2537503818183868</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2865613260194423</v>
+        <v>0.2845751344166443</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2066</v>
@@ -4284,19 +4284,19 @@
         <v>2221457</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2141506</v>
+        <v>2144027</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2309145</v>
+        <v>2306555</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3181656287804336</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3067147429424985</v>
+        <v>0.3070758325793712</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3307246937603189</v>
+        <v>0.3303537794642027</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>2163113</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2101355</v>
+        <v>2103232</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2220706</v>
+        <v>2218601</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6314278286408486</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6134000529935431</v>
+        <v>0.6139480758329168</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6482395951608751</v>
+        <v>0.647625197501</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2415</v>
@@ -4334,19 +4334,19 @@
         <v>2597506</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2537221</v>
+        <v>2544285</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2651128</v>
+        <v>2653908</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7303901346664431</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.713438673980557</v>
+        <v>0.7154248655833557</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7454679665389323</v>
+        <v>0.7462496181816133</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4438</v>
@@ -4355,19 +4355,19 @@
         <v>4760619</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4672931</v>
+        <v>4675521</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4840570</v>
+        <v>4838049</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6818343712195664</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6692753062396811</v>
+        <v>0.6696462205357973</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6932852570575015</v>
+        <v>0.6929241674206289</v>
       </c>
     </row>
     <row r="27">
@@ -4702,19 +4702,19 @@
         <v>142302</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>123898</v>
+        <v>121006</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>162477</v>
+        <v>163011</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.339247671402795</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2953728341561818</v>
+        <v>0.2884789334928698</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3873452132997553</v>
+        <v>0.3886175636986546</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>107</v>
@@ -4723,19 +4723,19 @@
         <v>105447</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>87857</v>
+        <v>89240</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>122835</v>
+        <v>122372</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2664440224219902</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2219992097153932</v>
+        <v>0.2254939619508431</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3103823447642989</v>
+        <v>0.3092119559997805</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>240</v>
@@ -4744,19 +4744,19 @@
         <v>247748</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>222082</v>
+        <v>219585</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>273910</v>
+        <v>274045</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3039044769860919</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2724208521386178</v>
+        <v>0.2693579811175146</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.335995436995019</v>
+        <v>0.3361620931854837</v>
       </c>
     </row>
     <row r="5">
@@ -4773,19 +4773,19 @@
         <v>277161</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>256986</v>
+        <v>256452</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>295565</v>
+        <v>298457</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.660752328597205</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6126547867002449</v>
+        <v>0.6113824363013454</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7046271658438182</v>
+        <v>0.7115210665071304</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>297</v>
@@ -4794,19 +4794,19 @@
         <v>290308</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>272920</v>
+        <v>273383</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>307898</v>
+        <v>306515</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7335559775780098</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6896176552357011</v>
+        <v>0.6907880440002196</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7780007902846069</v>
+        <v>0.774506038049157</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>557</v>
@@ -4815,19 +4815,19 @@
         <v>567470</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>541308</v>
+        <v>541173</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>593136</v>
+        <v>595633</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6960955230139081</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.664004563004981</v>
+        <v>0.6638379068145163</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7275791478613821</v>
+        <v>0.7306420188824854</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>261082</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>238359</v>
+        <v>234056</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>290272</v>
+        <v>284821</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4421407045412315</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4036583526821732</v>
+        <v>0.3963717938985948</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4915724086760918</v>
+        <v>0.482342195790694</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>219</v>
@@ -4940,19 +4940,19 @@
         <v>213031</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>192409</v>
+        <v>193002</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>235925</v>
+        <v>236099</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3780202084605866</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3414263609217993</v>
+        <v>0.3424789266916847</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4186444736600579</v>
+        <v>0.4189537151911246</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>468</v>
@@ -4961,19 +4961,19 @@
         <v>474113</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>439256</v>
+        <v>439835</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>508531</v>
+        <v>504847</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4108292229099084</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3806241978676164</v>
+        <v>0.3811258774642838</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4406528996003245</v>
+        <v>0.4374601761765068</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>329414</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>300224</v>
+        <v>305675</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>352137</v>
+        <v>356440</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5578592954587686</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5084275913239085</v>
+        <v>0.517657804209306</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5963416473178269</v>
+        <v>0.6036282061014052</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>360</v>
@@ -5011,19 +5011,19 @@
         <v>350513</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>327619</v>
+        <v>327445</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>371135</v>
+        <v>370542</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6219797915394134</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5813555263399429</v>
+        <v>0.581046284808876</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6585736390782008</v>
+        <v>0.6575210733083154</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>678</v>
@@ -5032,19 +5032,19 @@
         <v>679927</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>645509</v>
+        <v>649193</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>714784</v>
+        <v>714205</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5891707770900916</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5593471003996755</v>
+        <v>0.5625398238234931</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6193758021323835</v>
+        <v>0.6188741225357162</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>266024</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>240558</v>
+        <v>240244</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>291464</v>
+        <v>293906</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3982239068372334</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3601026780836334</v>
+        <v>0.3596338548248419</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4363065408386834</v>
+        <v>0.439962482063779</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>225</v>
@@ -5157,19 +5157,19 @@
         <v>220544</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>196608</v>
+        <v>199578</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>245941</v>
+        <v>245243</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3339250966880152</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2976843842844498</v>
+        <v>0.3021809335445248</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3723796577164915</v>
+        <v>0.3713214244282616</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>477</v>
@@ -5178,19 +5178,19 @@
         <v>486567</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>451271</v>
+        <v>452654</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>523558</v>
+        <v>519240</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3662576030956431</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.339689111224555</v>
+        <v>0.3407303660691722</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3941022711721933</v>
+        <v>0.3908516721731097</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>402001</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>376561</v>
+        <v>374119</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>427467</v>
+        <v>427781</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6017760931627667</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5636934591613166</v>
+        <v>0.560037517936221</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6398973219163666</v>
+        <v>0.6403661451751581</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>439</v>
@@ -5228,19 +5228,19 @@
         <v>439915</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>414518</v>
+        <v>415216</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>463851</v>
+        <v>460881</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6660749033119847</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6276203422835084</v>
+        <v>0.6286785755717386</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7023156157155501</v>
+        <v>0.6978190664554755</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>824</v>
@@ -5249,19 +5249,19 @@
         <v>841916</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>804925</v>
+        <v>809243</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>877212</v>
+        <v>875829</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6337423969043569</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6058977288278067</v>
+        <v>0.6091483278268902</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.660310888775445</v>
+        <v>0.6592696339308277</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>277798</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>252351</v>
+        <v>252501</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>307070</v>
+        <v>304717</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4299958890964127</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3906066803548922</v>
+        <v>0.3908393897911941</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4753060125468226</v>
+        <v>0.4716628990548051</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>211</v>
@@ -5374,19 +5374,19 @@
         <v>230829</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>206527</v>
+        <v>207093</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>258328</v>
+        <v>255635</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3567894745033369</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3192257650000268</v>
+        <v>0.3201017051305837</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3992950695335936</v>
+        <v>0.3951312691957163</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>457</v>
@@ -5395,19 +5395,19 @@
         <v>508627</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>472062</v>
+        <v>472218</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>543585</v>
+        <v>545082</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3933668561170007</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3650876948877068</v>
+        <v>0.3652085419931137</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4204031089668305</v>
+        <v>0.4215612481851761</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>368250</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>338978</v>
+        <v>341331</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>393697</v>
+        <v>393547</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5700041109035873</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5246939874531773</v>
+        <v>0.5283371009451949</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6093933196451079</v>
+        <v>0.609160610208806</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>389</v>
@@ -5445,19 +5445,19 @@
         <v>416132</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>388633</v>
+        <v>391326</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>440434</v>
+        <v>439868</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.643210525496663</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6007049304664065</v>
+        <v>0.6048687308042837</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6807742349999732</v>
+        <v>0.6798982948694166</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>725</v>
@@ -5466,19 +5466,19 @@
         <v>784382</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>749424</v>
+        <v>747927</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>820947</v>
+        <v>820791</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6066331438829993</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5795968910331696</v>
+        <v>0.5784387518148238</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6349123051122931</v>
+        <v>0.6347914580068863</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>146836</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>127050</v>
+        <v>124713</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>168431</v>
+        <v>170064</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3072415637655997</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2658408175876059</v>
+        <v>0.2609505881001148</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3524269872639174</v>
+        <v>0.355844388328128</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>98</v>
@@ -5591,19 +5591,19 @@
         <v>114087</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>95809</v>
+        <v>95820</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>136324</v>
+        <v>135693</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2301353676725043</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1932650249942492</v>
+        <v>0.1932869916465923</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2749902618076372</v>
+        <v>0.2737190158316259</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>228</v>
@@ -5612,19 +5612,19 @@
         <v>260924</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>231797</v>
+        <v>230477</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>291111</v>
+        <v>289555</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2679827850738919</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2380681211048016</v>
+        <v>0.2367125885262868</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2989868450033152</v>
+        <v>0.2973887360940768</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>331082</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>309487</v>
+        <v>307854</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>350868</v>
+        <v>353205</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6927584362344003</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6475730127360827</v>
+        <v>0.6441556116718721</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7341591824123941</v>
+        <v>0.7390494118998853</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>334</v>
@@ -5662,19 +5662,19 @@
         <v>381653</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>359416</v>
+        <v>360047</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>399931</v>
+        <v>399920</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7698646323274957</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7250097381923627</v>
+        <v>0.7262809841683741</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8067349750057509</v>
+        <v>0.8067130083534078</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>628</v>
@@ -5683,19 +5683,19 @@
         <v>712734</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>682547</v>
+        <v>684103</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>741861</v>
+        <v>743181</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7320172149261081</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7010131549966848</v>
+        <v>0.7026112639059243</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7619318788951985</v>
+        <v>0.7632874114737133</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>58232</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>45278</v>
+        <v>44203</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>74469</v>
+        <v>72489</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.174174624380989</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1354294482394501</v>
+        <v>0.1322135683388226</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2227403578392493</v>
+        <v>0.2168187409524639</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>27</v>
@@ -5808,19 +5808,19 @@
         <v>30027</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>19834</v>
+        <v>20819</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>41135</v>
+        <v>41477</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07948779315764165</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0525032064539378</v>
+        <v>0.05511237481119341</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1088906304326942</v>
+        <v>0.1097977243392328</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>82</v>
@@ -5829,19 +5829,19 @@
         <v>88259</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>71047</v>
+        <v>72358</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>109837</v>
+        <v>110091</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1239436333008929</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09977244008371768</v>
+        <v>0.1016137908973508</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1542455892223623</v>
+        <v>0.1546018971738073</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>276098</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>259861</v>
+        <v>261841</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>289052</v>
+        <v>290127</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.825825375619011</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7772596421607502</v>
+        <v>0.7831812590475362</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8645705517605499</v>
+        <v>0.8677864316611774</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>327</v>
@@ -5879,19 +5879,19 @@
         <v>347735</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>336627</v>
+        <v>336285</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>357928</v>
+        <v>356943</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9205122068423583</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8911093695673058</v>
+        <v>0.890202275660767</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9474967935460622</v>
+        <v>0.9448876251888065</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>597</v>
@@ -5900,19 +5900,19 @@
         <v>623833</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>602255</v>
+        <v>602001</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>641045</v>
+        <v>639734</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8760563666991071</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8457544107776376</v>
+        <v>0.8453981028261927</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9002275599162822</v>
+        <v>0.8983862091026488</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>23863</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>16892</v>
+        <v>16813</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>34710</v>
+        <v>33414</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09316745232165868</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06594963752986752</v>
+        <v>0.0656425224494689</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1355170315306122</v>
+        <v>0.130457476627504</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>6</v>
@@ -6025,19 +6025,19 @@
         <v>8014</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2785</v>
+        <v>2724</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>16383</v>
+        <v>17157</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02009101515870271</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.006981452614287753</v>
+        <v>0.006829916129236302</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04107199059110073</v>
+        <v>0.04301202270955962</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>35</v>
@@ -6046,19 +6046,19 @@
         <v>31877</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>22699</v>
+        <v>22443</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>43857</v>
+        <v>45009</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04866632667031374</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03465452570236315</v>
+        <v>0.03426394347708335</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06695502021370836</v>
+        <v>0.06871491059836694</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>232270</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>221423</v>
+        <v>222719</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>239241</v>
+        <v>239320</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9068325476783413</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8644829684693878</v>
+        <v>0.8695425233724953</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9340503624701323</v>
+        <v>0.9343574775505308</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>294</v>
@@ -6096,19 +6096,19 @@
         <v>390870</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>382501</v>
+        <v>381727</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>396099</v>
+        <v>396160</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9799089848412973</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9589280094088992</v>
+        <v>0.9569879772904403</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9930185473857122</v>
+        <v>0.9931700838707637</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>566</v>
@@ -6117,19 +6117,19 @@
         <v>623140</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>611160</v>
+        <v>610008</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>632318</v>
+        <v>632574</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9513336733296862</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9330449797862916</v>
+        <v>0.9312850894016329</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9653454742976366</v>
+        <v>0.9657360565229165</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>1176137</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1119128</v>
+        <v>1116145</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1231797</v>
+        <v>1230954</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3466962845575992</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3298913901695234</v>
+        <v>0.3290120175879894</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3631035297314275</v>
+        <v>0.3628549158123226</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>893</v>
@@ -6242,19 +6242,19 @@
         <v>921979</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>869446</v>
+        <v>867694</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>975772</v>
+        <v>980415</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2605119304646502</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2456685304786344</v>
+        <v>0.2451734870609874</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2757115418303183</v>
+        <v>0.2770235842803463</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1987</v>
@@ -6263,19 +6263,19 @@
         <v>2098116</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2015935</v>
+        <v>2024341</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2177136</v>
+        <v>2182727</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3026921600306471</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2908360125738308</v>
+        <v>0.292048827185374</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3140923339294397</v>
+        <v>0.3148988635813798</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>2216277</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2160617</v>
+        <v>2161460</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2273286</v>
+        <v>2276269</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6533037154424008</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6368964702685724</v>
+        <v>0.6371450841876773</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6701086098304765</v>
+        <v>0.6709879824120105</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2440</v>
@@ -6313,19 +6313,19 @@
         <v>2617124</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2563331</v>
+        <v>2558688</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2669657</v>
+        <v>2671409</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7394880695353498</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7242884581696817</v>
+        <v>0.7229764157196541</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7543314695213658</v>
+        <v>0.7548265129390126</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4575</v>
@@ -6334,19 +6334,19 @@
         <v>4833401</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4754381</v>
+        <v>4748790</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4915582</v>
+        <v>4907176</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6973078399693529</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6859076660705602</v>
+        <v>0.6851011364186201</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.709163987426169</v>
+        <v>0.7079511728146259</v>
       </c>
     </row>
     <row r="27">
@@ -6681,19 +6681,19 @@
         <v>93153</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>66899</v>
+        <v>67639</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>120768</v>
+        <v>124151</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2284321189246319</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1640511028437588</v>
+        <v>0.1658665351510424</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2961491666069935</v>
+        <v>0.3044473485998735</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>38</v>
@@ -6702,19 +6702,19 @@
         <v>68600</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>50036</v>
+        <v>49854</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>89401</v>
+        <v>90843</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1905313640929679</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1389716173238099</v>
+        <v>0.1384647596380434</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2483028388009882</v>
+        <v>0.252308235044273</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>75</v>
@@ -6723,19 +6723,19 @@
         <v>161754</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>130356</v>
+        <v>127381</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>198790</v>
+        <v>193822</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2106600864809451</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1697697679792037</v>
+        <v>0.1658950083008145</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.258894092438462</v>
+        <v>0.2524242861765066</v>
       </c>
     </row>
     <row r="5">
@@ -6752,19 +6752,19 @@
         <v>314640</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>287025</v>
+        <v>283642</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>340894</v>
+        <v>340154</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7715678810753682</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7038508333930064</v>
+        <v>0.6955526514001266</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8359488971562413</v>
+        <v>0.8341334648489576</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>168</v>
@@ -6773,19 +6773,19 @@
         <v>291448</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>270647</v>
+        <v>269205</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>310012</v>
+        <v>310194</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8094686359070322</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7516971611990122</v>
+        <v>0.747691764955727</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8610283826761903</v>
+        <v>0.8615352403619565</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>303</v>
@@ -6794,19 +6794,19 @@
         <v>606088</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>569052</v>
+        <v>574020</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>637486</v>
+        <v>640461</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.789339913519055</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7411059075615377</v>
+        <v>0.7475757138234934</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8302302320207963</v>
+        <v>0.8341049916991855</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>161617</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>138168</v>
+        <v>137670</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>191301</v>
+        <v>190763</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.338896956956284</v>
+        <v>0.3388969569562839</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2897273467052681</v>
+        <v>0.2886833085106894</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4011432062353909</v>
+        <v>0.4000145038106801</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>113</v>
@@ -6919,7 +6919,7 @@
         <v>122038</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>102879</v>
+        <v>102337</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>143476</v>
@@ -6928,10 +6928,10 @@
         <v>0.2435481225264339</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2053131794484696</v>
+        <v>0.2042312333209721</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2863313565025418</v>
+        <v>0.2863309110506156</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>218</v>
@@ -6940,19 +6940,19 @@
         <v>283654</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>252396</v>
+        <v>250338</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>320219</v>
+        <v>319602</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2900431836553113</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2580807060970002</v>
+        <v>0.25597663406664</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3274311738219759</v>
+        <v>0.3268007811669552</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>315273</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>285589</v>
+        <v>286127</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>338722</v>
+        <v>339220</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.661103043043716</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5988567937646092</v>
+        <v>0.5999854961893197</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7102726532947319</v>
+        <v>0.7113166914893106</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>347</v>
@@ -6993,16 +6993,16 @@
         <v>357607</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>398204</v>
+        <v>398746</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.756451877473566</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7136686434974585</v>
+        <v>0.7136690889493847</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7946868205515307</v>
+        <v>0.7957687666790281</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>544</v>
@@ -7011,19 +7011,19 @@
         <v>694319</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>657754</v>
+        <v>658371</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>725577</v>
+        <v>727635</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7099568163446887</v>
+        <v>0.7099568163446888</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6725688261780236</v>
+        <v>0.673199218833045</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7419192939029997</v>
+        <v>0.74402336593336</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>168348</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>145316</v>
+        <v>147785</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>191580</v>
+        <v>195761</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2716792087947245</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2345097549892713</v>
+        <v>0.2384943185293753</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3091693329763906</v>
+        <v>0.3159172737185306</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>198</v>
@@ -7136,19 +7136,19 @@
         <v>146458</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>128900</v>
+        <v>127894</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>165231</v>
+        <v>164524</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.2354099921867466</v>
+        <v>0.2354099921867465</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2071877444429401</v>
+        <v>0.2055716726772067</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2655855012285732</v>
+        <v>0.2644490890069242</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>348</v>
@@ -7157,19 +7157,19 @@
         <v>314806</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>287950</v>
+        <v>286104</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>346916</v>
+        <v>344511</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2535083788236698</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2318811366263899</v>
+        <v>0.2303947134233771</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2793661468306937</v>
+        <v>0.277428854702842</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>451311</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>428079</v>
+        <v>423898</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>474343</v>
+        <v>471874</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7283207912052757</v>
+        <v>0.7283207912052756</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6908306670236094</v>
+        <v>0.6840827262814696</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7654902450107286</v>
+        <v>0.7615056814706247</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>648</v>
@@ -7207,19 +7207,19 @@
         <v>475681</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>456908</v>
+        <v>457615</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>493239</v>
+        <v>494245</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7645900078132535</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7344144987714268</v>
+        <v>0.7355509109930757</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7928122555570598</v>
+        <v>0.7944283273227932</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1043</v>
@@ -7228,19 +7228,19 @@
         <v>926992</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>894882</v>
+        <v>897287</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>953848</v>
+        <v>955694</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7464916211763302</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7206338531693063</v>
+        <v>0.7225711452971579</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.76811886337361</v>
+        <v>0.7696052865766227</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>195321</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>170221</v>
+        <v>170239</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>219326</v>
+        <v>221025</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.2792388810864468</v>
+        <v>0.2792388810864467</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.243354880530208</v>
+        <v>0.2433806558791516</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3135577865416075</v>
+        <v>0.3159866409829198</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>275</v>
@@ -7353,19 +7353,19 @@
         <v>174441</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>158101</v>
+        <v>156733</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>194635</v>
+        <v>194772</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.2371804883644381</v>
+        <v>0.2371804883644382</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2149637579100352</v>
+        <v>0.2131030374447671</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2646379844654483</v>
+        <v>0.2648238460781923</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>459</v>
@@ -7374,19 +7374,19 @@
         <v>369762</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>336682</v>
+        <v>340156</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>397983</v>
+        <v>400255</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.2576820657195051</v>
+        <v>0.2576820657195052</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2346290502461087</v>
+        <v>0.2370498975417364</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2773491672495914</v>
+        <v>0.2789324512527424</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>504155</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>480150</v>
+        <v>478451</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>529255</v>
+        <v>529237</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7207611189135533</v>
+        <v>0.7207611189135532</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6864422134583925</v>
+        <v>0.68401335901708</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7566451194697918</v>
+        <v>0.7566193441208484</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>864</v>
@@ -7424,19 +7424,19 @@
         <v>561037</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>540843</v>
+        <v>540706</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>577377</v>
+        <v>578745</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7628195116355617</v>
+        <v>0.7628195116355618</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7353620155345515</v>
+        <v>0.7351761539218077</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7850362420899648</v>
+        <v>0.7868969625552328</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1344</v>
@@ -7445,19 +7445,19 @@
         <v>1065192</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1036971</v>
+        <v>1034699</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1098272</v>
+        <v>1094798</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7423179342804946</v>
+        <v>0.7423179342804948</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7226508327504085</v>
+        <v>0.7210675487472575</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7653709497538913</v>
+        <v>0.7629501024582638</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>188232</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>166695</v>
+        <v>165339</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>211425</v>
+        <v>210588</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.3094566729138554</v>
+        <v>0.3094566729138553</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2740496942816641</v>
+        <v>0.2718199035329502</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3475876555224359</v>
+        <v>0.3462104165229354</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>219</v>
@@ -7570,19 +7570,19 @@
         <v>134336</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>118150</v>
+        <v>118713</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>150695</v>
+        <v>150842</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.2206366767770417</v>
+        <v>0.2206366767770418</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1940523848148698</v>
+        <v>0.1949774479669679</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2475055550872296</v>
+        <v>0.2477471097871684</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>421</v>
@@ -7591,19 +7591,19 @@
         <v>322567</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>292012</v>
+        <v>296623</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>348939</v>
+        <v>351890</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2650251189806219</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2399207022290941</v>
+        <v>0.2437090130271052</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2866920851009369</v>
+        <v>0.2891166407241158</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>420033</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>396840</v>
+        <v>397677</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>441570</v>
+        <v>442926</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.6905433270861447</v>
+        <v>0.6905433270861445</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6524123444775642</v>
+        <v>0.6537895834770645</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.725950305718336</v>
+        <v>0.7281800964670501</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>783</v>
@@ -7641,19 +7641,19 @@
         <v>474519</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>458160</v>
+        <v>458013</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>490705</v>
+        <v>490142</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7793633232229581</v>
+        <v>0.7793633232229583</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7524944449127704</v>
+        <v>0.7522528902128319</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8059476151851301</v>
+        <v>0.8050225520330325</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1243</v>
@@ -7662,19 +7662,19 @@
         <v>894553</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>868181</v>
+        <v>865230</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>925108</v>
+        <v>920497</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.734974881019378</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7133079148990632</v>
+        <v>0.7108833592758843</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.760079297770906</v>
+        <v>0.7562909869728949</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>74883</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>62108</v>
+        <v>63428</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>87924</v>
+        <v>89530</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.1839516027387819</v>
+        <v>0.183951602738782</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1525702626678465</v>
+        <v>0.1558120087176384</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.215987704134493</v>
+        <v>0.2199313946491199</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>97</v>
@@ -7787,19 +7787,19 @@
         <v>54563</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>45029</v>
+        <v>45862</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>65595</v>
+        <v>64911</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1242421760803327</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1025339481142525</v>
+        <v>0.1044291007868913</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1493621973087177</v>
+        <v>0.1478044267509677</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>200</v>
@@ -7808,19 +7808,19 @@
         <v>129446</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>111993</v>
+        <v>112575</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>146257</v>
+        <v>146724</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1529649111088785</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1323404324390721</v>
+        <v>0.133028914193866</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.172830792381512</v>
+        <v>0.1733818786680252</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>332197</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>319156</v>
+        <v>317550</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>344972</v>
+        <v>343652</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.816048397261218</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7840122958655069</v>
+        <v>0.7800686053508803</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8474297373321532</v>
+        <v>0.8441879912823615</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>730</v>
@@ -7858,19 +7858,19 @@
         <v>384603</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>373571</v>
+        <v>374255</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>394137</v>
+        <v>393304</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8757578239196675</v>
+        <v>0.8757578239196673</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8506378026912825</v>
+        <v>0.8521955732490324</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8974660518857474</v>
+        <v>0.8955708992131088</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1197</v>
@@ -7879,19 +7879,19 @@
         <v>716800</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>699989</v>
+        <v>699522</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>734253</v>
+        <v>733671</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8470350888911214</v>
+        <v>0.8470350888911216</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8271692076184881</v>
+        <v>0.826618121331975</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8676595675609277</v>
+        <v>0.8669710858061338</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>20195</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>13835</v>
+        <v>13658</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>29087</v>
+        <v>28453</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06510254728303488</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0446016504959353</v>
+        <v>0.04402963576807824</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09377036686177577</v>
+        <v>0.09172666776636187</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>12</v>
@@ -8004,19 +8004,19 @@
         <v>6778</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3582</v>
+        <v>3619</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>11192</v>
+        <v>11527</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01458793170363928</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.007709211495819154</v>
+        <v>0.007789770371150108</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02408922360006007</v>
+        <v>0.02480910100344886</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>42</v>
@@ -8025,19 +8025,19 @@
         <v>26972</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>19198</v>
+        <v>19278</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>35920</v>
+        <v>35683</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.03481173488872831</v>
+        <v>0.0348117348887283</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02477743747641364</v>
+        <v>0.02488038986913312</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04636000750505442</v>
+        <v>0.04605380271803999</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>290003</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>281111</v>
+        <v>281745</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>296363</v>
+        <v>296540</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9348974527169649</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9062296331382251</v>
+        <v>0.9082733322336374</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9553983495040647</v>
+        <v>0.9559703642319217</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>869</v>
@@ -8075,19 +8075,19 @@
         <v>457831</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>453417</v>
+        <v>453082</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>461027</v>
+        <v>460990</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9854120682963607</v>
+        <v>0.9854120682963606</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9759107763999399</v>
+        <v>0.9751908989965513</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.992290788504181</v>
+        <v>0.99221022962885</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1297</v>
@@ -8096,19 +8096,19 @@
         <v>747835</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>738887</v>
+        <v>739124</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>755609</v>
+        <v>755529</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9651882651112716</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9536399924949456</v>
+        <v>0.9539461972819601</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9752225625235862</v>
+        <v>0.9751196101308672</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>901748</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>840920</v>
+        <v>844937</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>959501</v>
+        <v>959800</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2554990116196763</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2382641432519156</v>
+        <v>0.2394022922885192</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2718623964469848</v>
+        <v>0.2719471848166741</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>952</v>
@@ -8221,19 +8221,19 @@
         <v>707214</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>663222</v>
+        <v>666124</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>747844</v>
+        <v>756338</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.18953143835764</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1777417211281965</v>
+        <v>0.178519485723527</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2004202949547753</v>
+        <v>0.2026964780136919</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1763</v>
@@ -8242,19 +8242,19 @@
         <v>1608962</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1537825</v>
+        <v>1538225</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1683452</v>
+        <v>1684558</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2215975019216167</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2118000868114483</v>
+        <v>0.2118551120516892</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2318568348086373</v>
+        <v>0.2320091775632078</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>2627613</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2569860</v>
+        <v>2569561</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2688441</v>
+        <v>2684424</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.7445009883803236</v>
+        <v>0.7445009883803237</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7281376035530159</v>
+        <v>0.7280528151833261</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7617358567480844</v>
+        <v>0.7605977077114809</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4409</v>
@@ -8292,19 +8292,19 @@
         <v>3024166</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2983536</v>
+        <v>2975042</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3068158</v>
+        <v>3065256</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.81046856164236</v>
+        <v>0.8104685616423599</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7995797050452246</v>
+        <v>0.7973035219863079</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.822258278871803</v>
+        <v>0.821480514276473</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6971</v>
@@ -8313,19 +8313,19 @@
         <v>5651778</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5577288</v>
+        <v>5576182</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5722915</v>
+        <v>5722515</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7784024980783832</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7681431651913628</v>
+        <v>0.7679908224367922</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7881999131885518</v>
+        <v>0.7881448879483108</v>
       </c>
     </row>
     <row r="27">
